--- a/数据整理/stocks/A股/上证主板/601319-中国人保.xlsx
+++ b/数据整理/stocks/A股/上证主板/601319-中国人保.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.39</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.36</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3205</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -576,15 +606,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>14.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.09</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.21</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3176</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601319-中国人保.xlsx
+++ b/数据整理/stocks/A股/上证主板/601319-中国人保.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -631,4 +632,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7350</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009992</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城量化成长演化混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601319-中国人保.xlsx
+++ b/数据整理/stocks/A股/上证主板/601319-中国人保.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -764,4 +765,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2137</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601319-中国人保.xlsx
+++ b/数据整理/stocks/A股/上证主板/601319-中国人保.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601319-中国人保.xlsx
+++ b/数据整理/stocks/A股/上证主板/601319-中国人保.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -868,7 +869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -879,17 +880,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -899,14 +920,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.21</v>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7999</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -915,14 +958,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.86</v>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -931,14 +996,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.32</v>
+          <t>010938</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>23.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -947,13 +1034,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>010939</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601319-中国人保.xlsx
+++ b/数据整理/stocks/A股/上证主板/601319-中国人保.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1077,7 +1078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1088,17 +1089,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1108,14 +1129,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.92</v>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8107</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1124,14 +1167,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.21</v>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1140,14 +1205,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.86</v>
+          <t>005248</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1156,14 +1243,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.32</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="6">
@@ -1172,13 +1381,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601319-中国人保.xlsx
+++ b/数据整理/stocks/A股/上证主板/601319-中国人保.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1286,7 +1287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1297,17 +1298,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1317,14 +1338,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.94</v>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3877</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1333,14 +1376,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.92</v>
+          <t>000311</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9980</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1349,14 +1414,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.21</v>
+          <t>007143</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银沪深300指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2673</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1365,14 +1452,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.86</v>
+          <t>360001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大保德信量化股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2498</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1381,14 +1490,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.32</v>
+          <t>005274</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银景福回报混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>29.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1676</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1397,13 +1528,943 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>007318</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银民丰回报混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>32.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007144</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银沪深300指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002535</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009992</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城量化成长演化混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>57.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009059</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>37.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>35.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001362</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城领先回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005325</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城泰恒回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001379</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺长城领先回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005326</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城泰恒回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010773</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城泰阳回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002536</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>29.77</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009060</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010774</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>景顺长城泰阳回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004892</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华润元大成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004891</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华润元大成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601319-中国人保.xlsx
+++ b/数据整理/stocks/A股/上证主板/601319-中国人保.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
-        <v>4.83</v>
+        <v>4.89</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>1.94</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1.21</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.86</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.32</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -600,6 +617,1124 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>52.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4173</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002768</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安安进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9017</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002670</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4170</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519979</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2141</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007143</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银沪深300指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2080</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002671</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2076</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519997</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信银利精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1436</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007144</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银沪深300指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000877</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006121</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安双核驱动混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009059</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015768</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008184</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010868</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝安盈混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005248</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>860029</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>63.41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009060</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013504</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安双核驱动混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>860028</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>63.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014572</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长信银利精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006397</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长信内需成长混合E</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>860010</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>63.41</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>016182</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安安进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1636,214 +2771,6 @@
       </c>
       <c r="H27" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>167301</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>方正富邦中证保险主题指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>54.05</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.05</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.8107</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>257040</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国联安红利混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>72.31</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0548</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005248</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>新华沪深300指数增强A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.10</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0407</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>510760</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国泰上证综合ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>95.43</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0300</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1918,22 +2845,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>58.06</t>
+          <t>54.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.51</t>
+          <t>93.05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.7999</t>
+          <t>1.8107</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1956,26 +2883,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.20</t>
+          <t>72.31</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0563</t>
+          <t>0.0548</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1984,36 +2911,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010938</t>
+          <t>005248</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫招惠一年持有期混合A</t>
+          <t>新华沪深300指数增强A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23.09</t>
+          <t>94.10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0450</t>
+          <t>0.0407</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2022,36 +2949,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010939</t>
+          <t>510760</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫招惠一年持有期混合C</t>
+          <t>国泰上证综合ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>23.09</t>
+          <t>95.43</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0158</t>
+          <t>0.0300</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2060,6 +2987,214 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7999</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010938</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>23.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010939</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2153,7 +3288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2285,7 +3420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2379,7 +3514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601319-中国人保.xlsx
+++ b/数据整理/stocks/A股/上证主板/601319-中国人保.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>4.89</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
-        <v>4.83</v>
+        <v>4.89</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>1.94</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>1.21</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.86</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0.32</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -616,7 +633,1139 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3205</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0874</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002768</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安安进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1240</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005870</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2420</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>200002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城久泰沪深300指数 A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1408</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006912</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城久泰沪深300指数 C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006022</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1203</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519997</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信银利精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>016690</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006121</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安双核驱动混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004495</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时量化平衡混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>37.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001633</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012435</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家招瑞回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004335</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝新飞跃灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>50.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003144</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝新机遇灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>32.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003154</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002111</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝新起点灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>32.43</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001634</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002871</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>162414</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝新机遇灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>32.23</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012436</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家招瑞回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014572</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长信银利精选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014181</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013504</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安双核驱动混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>016182</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安安进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>75.78</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1734,7 +2883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2771,214 +3920,6 @@
       </c>
       <c r="H27" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>167301</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>方正富邦中证保险主题指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>54.05</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.05</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.8107</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>257040</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国联安红利混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>72.31</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0548</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005248</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>新华沪深300指数增强A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.10</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0407</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>510760</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国泰上证综合ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>95.43</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0300</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3053,22 +3994,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>58.06</t>
+          <t>54.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.51</t>
+          <t>93.05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.7999</t>
+          <t>1.8107</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -3091,26 +4032,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.20</t>
+          <t>72.31</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0563</t>
+          <t>0.0548</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3119,36 +4060,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010938</t>
+          <t>005248</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫招惠一年持有期混合A</t>
+          <t>新华沪深300指数增强A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23.09</t>
+          <t>94.10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0450</t>
+          <t>0.0407</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -3157,36 +4098,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010939</t>
+          <t>510760</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫招惠一年持有期混合C</t>
+          <t>国泰上证综合ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>23.09</t>
+          <t>95.43</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0158</t>
+          <t>0.0300</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3195,6 +4136,214 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7999</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010938</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>23.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010939</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3288,7 +4437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3420,7 +4569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3512,98 +4661,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>167301</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>方正富邦中证保险主题指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>13.58</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.39</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3205</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>